--- a/Raw_Data/result/results.xlsx
+++ b/Raw_Data/result/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dw\Desktop\Project\Python\SSAR\Raw_Data\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C44ABE3-8772-47F2-A55C-FCC942AFBDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CFA838-7C5D-479D-A59C-0BEE0EE27595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
   <si>
     <t>a2a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,30 @@
   </si>
   <si>
     <t>SSAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOPISDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYGAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63 (L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.62 (L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.80 (L)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,6 +569,15 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -555,27 +588,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA8C8A2-903C-4B78-8884-4F8A7A93F619}">
-  <dimension ref="B3:AC40"/>
+  <dimension ref="B3:AC42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -878,774 +890,920 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34" t="s">
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34" t="s">
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34" t="s">
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34" t="s">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="X4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Y4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="35" t="s">
+      <c r="AA4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="35" t="s">
+      <c r="AB4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC4" s="35" t="s">
+      <c r="AC4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="1">
         <v>73</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="1">
         <v>86</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="1">
         <v>23</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="1">
         <v>53</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="1">
         <v>70</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="1">
         <v>71</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="1">
         <v>50</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="1">
         <v>46</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="1">
         <v>82</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="1">
         <v>5</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="1">
         <v>69</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="1">
         <v>87</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="1">
         <v>14</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="1">
         <v>51</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5" s="1">
         <v>84</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="1">
         <v>5</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="1">
         <v>47</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="1">
         <v>72</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="1">
         <v>0</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5" s="1">
         <v>19</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Y5" s="1">
         <v>76</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5" s="1">
         <v>0</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AA5" s="1">
         <v>45</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AB5" s="1">
         <v>84</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="1">
         <v>54</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="1">
         <v>85</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="1">
         <v>29</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="1">
         <v>67</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="1">
         <v>42</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="1">
         <v>43</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="1">
         <v>36</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="1">
         <v>83</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="1">
         <v>9</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="1">
         <v>33</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="1">
         <v>78</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="1">
         <v>0</v>
       </c>
-      <c r="R6" s="35">
+      <c r="R6" s="1">
         <v>31</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="1">
         <v>80</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="1">
         <v>0</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="1">
         <v>29</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6" s="1">
         <v>79</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6" s="1">
         <v>0</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="1">
         <v>15</v>
       </c>
-      <c r="Y6" s="35">
+      <c r="Y6" s="1">
         <v>82</v>
       </c>
-      <c r="Z6" s="35">
+      <c r="Z6" s="1">
         <v>0</v>
       </c>
-      <c r="AA6" s="35">
+      <c r="AA6" s="1">
         <v>29</v>
       </c>
-      <c r="AB6" s="35">
+      <c r="AB6" s="1">
         <v>78</v>
       </c>
-      <c r="AC6" s="35">
+      <c r="AC6" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="1">
         <v>49</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="1">
         <v>82</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="1">
         <v>49</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="1">
         <v>75</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="1">
         <v>45</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="1">
         <v>50</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="1">
         <v>47</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="1">
         <v>82</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="1">
         <v>8</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="1">
         <v>75</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="1">
         <v>87</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="1">
         <v>8</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7" s="1">
         <v>58</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="1">
         <v>85</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="1">
         <v>6</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="1">
         <v>32</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="1">
         <v>77</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="1">
         <v>0</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7" s="1">
         <v>30</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="1">
         <v>79</v>
       </c>
-      <c r="Z7" s="35">
+      <c r="Z7" s="1">
         <v>29</v>
       </c>
-      <c r="AA7" s="35">
+      <c r="AA7" s="1">
         <v>29</v>
       </c>
-      <c r="AB7" s="35">
+      <c r="AB7" s="1">
         <v>78</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="1">
         <v>51</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="1">
         <v>83</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="1">
         <v>13</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="1">
         <v>54</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="1">
         <v>75</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="1">
         <v>48</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="1">
         <v>52</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="1">
         <v>48</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="1">
         <v>83</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="1">
         <v>8</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="1">
         <v>69</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="1">
         <v>85</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="1">
         <v>8</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="1">
         <v>57</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="1">
         <v>83</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="1">
         <v>10</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="1">
         <v>47</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="1">
         <v>79</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="1">
         <v>0</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="1">
         <v>34</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8" s="1">
         <v>81</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8" s="1">
         <v>20</v>
       </c>
-      <c r="AA8" s="35">
+      <c r="AA8" s="1">
         <v>24</v>
       </c>
-      <c r="AB8" s="35">
+      <c r="AB8" s="1">
         <v>76</v>
       </c>
-      <c r="AC8" s="35">
+      <c r="AC8" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="1">
         <v>62</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="1">
         <v>80</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="1">
         <v>44</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="1">
         <v>74</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="1">
         <v>54</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="1">
         <v>52</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="1">
         <v>48</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="1">
         <v>80</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="1">
         <v>5</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="1">
         <v>58</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="1">
         <v>77</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="1">
         <v>52</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="1">
         <v>82</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="1">
         <v>3</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="1">
         <v>49</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="1">
         <v>71</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="1">
         <v>0</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X9" s="1">
         <v>36</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9" s="1">
         <v>85</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="Z9" s="1">
         <v>15</v>
       </c>
-      <c r="AA9" s="35">
+      <c r="AA9" s="1">
         <v>47</v>
       </c>
-      <c r="AB9" s="35">
+      <c r="AB9" s="1">
         <v>86</v>
       </c>
-      <c r="AC9" s="35">
+      <c r="AC9" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1">
+        <v>82</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1">
+        <v>77</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="1">
+        <v>46</v>
+      </c>
+      <c r="M10" s="1">
+        <v>81</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>53</v>
+      </c>
+      <c r="S10" s="1">
+        <v>81</v>
+      </c>
+      <c r="T10" s="1">
+        <v>3</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="1">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>46</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>86</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="1">
+        <v>48</v>
+      </c>
+      <c r="M11" s="1">
+        <v>83</v>
+      </c>
+      <c r="N11" s="1">
+        <v>8</v>
+      </c>
+      <c r="O11" s="1">
+        <v>76</v>
+      </c>
+      <c r="P11" s="1">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>4</v>
+      </c>
+      <c r="R11" s="1">
+        <v>23</v>
+      </c>
+      <c r="S11" s="1">
+        <v>77</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>38</v>
+      </c>
+      <c r="V11" s="1">
+        <v>78</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>77</v>
+      </c>
+      <c r="Z11" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="35">
+      <c r="AA11" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
         <v>66</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D12" s="1">
         <v>86</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E12" s="1">
         <v>33</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F12" s="1">
         <v>70</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G12" s="1">
         <v>81</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H12" s="1">
         <v>9</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I12" s="1">
         <v>63</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J12" s="1">
         <v>44</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K12" s="1">
         <v>4</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L12" s="1">
         <v>58</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M12" s="1">
         <v>87</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N12" s="1">
         <v>21</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O12" s="1">
         <v>90</v>
       </c>
-      <c r="P10" s="35">
+      <c r="P12" s="1">
         <v>90</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q12" s="1">
         <v>18</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R12" s="1">
         <v>52</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S12" s="1">
         <v>86</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T12" s="1">
         <v>7</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U12" s="1">
         <v>68</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V12" s="1">
         <v>85</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W12" s="1">
         <v>2</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X12" s="1">
         <v>48</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Y12" s="1">
         <v>87</v>
       </c>
-      <c r="Z10" s="35">
+      <c r="Z12" s="1">
         <v>36</v>
       </c>
-      <c r="AA10" s="35">
+      <c r="AA12" s="1">
         <v>29</v>
       </c>
-      <c r="AB10" s="35">
+      <c r="AB12" s="1">
         <v>78</v>
       </c>
-      <c r="AC10" s="35">
+      <c r="AC12" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C13" s="30">
         <v>69</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D13" s="30">
         <v>86</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E13" s="30">
         <v>19</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F13" s="30">
         <v>64.77</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G13" s="30">
         <v>81.88</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H13" s="30">
         <v>18.75</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I13" s="30">
         <v>56</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J13" s="30">
         <v>56.34</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K13" s="30">
         <v>1.03</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L13" s="30">
         <v>55</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M13" s="30">
         <v>84.86</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N13" s="30">
         <v>8</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O13" s="30">
         <v>83.84</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P13" s="30">
         <v>88.63</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q13" s="30">
         <v>21.43</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R13" s="30">
         <v>64.83</v>
       </c>
-      <c r="S11" s="37">
+      <c r="S13" s="30">
         <v>88.61</v>
       </c>
-      <c r="T11" s="37">
+      <c r="T13" s="30">
         <v>25</v>
       </c>
-      <c r="U11" s="37">
+      <c r="U13" s="30">
         <v>71</v>
       </c>
-      <c r="V11" s="37">
+      <c r="V13" s="30">
         <v>84</v>
       </c>
-      <c r="W11" s="37">
+      <c r="W13" s="30">
         <v>0</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X13" s="30">
         <v>52.05</v>
       </c>
-      <c r="Y11" s="37">
+      <c r="Y13" s="30">
         <v>89.5</v>
       </c>
-      <c r="Z11" s="37">
+      <c r="Z13" s="30">
         <v>37.5</v>
       </c>
-      <c r="AA11" s="37">
+      <c r="AA13" s="30">
         <v>52</v>
       </c>
-      <c r="AB11" s="37">
+      <c r="AB13" s="30">
         <v>86</v>
       </c>
-      <c r="AC11" s="37">
+      <c r="AC13" s="30">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="28"/>
-    </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="28"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C35" s="27"/>
@@ -1686,7 +1844,7 @@
     <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -1719,17 +1877,41 @@
       <c r="K40" s="27"/>
       <c r="L40" s="28"/>
     </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="28"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72978D6-CCCA-4C5C-8BC9-4BFC6185521C}">
-  <dimension ref="B3:L10"/>
+  <dimension ref="B3:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1996,7 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="L4" s="28">
-        <f>AVERAGE(C4:K4)</f>
+        <f t="shared" ref="L4:L12" si="0">AVERAGE(C4:K4)</f>
         <v>89.694444444444443</v>
       </c>
     </row>
@@ -1850,7 +2032,7 @@
         <v>317.52</v>
       </c>
       <c r="L5" s="28">
-        <f>AVERAGE(C5:K5)</f>
+        <f t="shared" si="0"/>
         <v>1795.4088888888887</v>
       </c>
     </row>
@@ -1886,7 +2068,7 @@
         <v>10.45</v>
       </c>
       <c r="L6" s="28">
-        <f>AVERAGE(C6:K6)</f>
+        <f t="shared" si="0"/>
         <v>1495.8100000000002</v>
       </c>
     </row>
@@ -1922,7 +2104,7 @@
         <v>13.8</v>
       </c>
       <c r="L7" s="28">
-        <f>AVERAGE(C7:K7)</f>
+        <f t="shared" si="0"/>
         <v>2576.2944444444438</v>
       </c>
     </row>
@@ -1958,79 +2140,149 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="L8" s="28">
-        <f>AVERAGE(C8:K8)</f>
+        <f t="shared" si="0"/>
         <v>180.41777777777781</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C9" s="27">
-        <v>70.95</v>
+        <v>10848.1</v>
       </c>
       <c r="D9" s="27">
-        <v>40.93</v>
-      </c>
-      <c r="E9" s="27">
-        <v>2438.09</v>
+        <v>1575.4</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="27">
-        <v>61.74</v>
+        <v>10084.799999999999</v>
       </c>
       <c r="G9" s="27">
-        <v>11.72</v>
+        <v>1155.0999999999999</v>
       </c>
       <c r="H9" s="27">
-        <v>19.41</v>
-      </c>
-      <c r="I9" s="27">
-        <v>960.04</v>
+        <v>401.6</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="J9" s="27">
-        <v>33.770000000000003</v>
+        <v>134.5</v>
       </c>
       <c r="K9" s="27">
-        <v>65.040000000000006</v>
+        <v>36783.599999999999</v>
       </c>
       <c r="L9" s="28">
-        <f>AVERAGE(C9:K9)</f>
-        <v>411.29888888888883</v>
+        <v>8711.9</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="27">
+        <v>2092.5</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1173.5</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="27">
+        <v>2348.9</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1817.3</v>
+      </c>
+      <c r="H10" s="27">
+        <v>5239.5</v>
+      </c>
+      <c r="I10" s="27">
+        <v>35156</v>
+      </c>
+      <c r="J10" s="27">
+        <v>516.29999999999995</v>
+      </c>
+      <c r="K10" s="27">
+        <v>4328.2</v>
+      </c>
+      <c r="L10" s="28">
+        <v>6584.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27">
+        <v>70.95</v>
+      </c>
+      <c r="D11" s="27">
+        <v>40.93</v>
+      </c>
+      <c r="E11" s="27">
+        <v>2438.09</v>
+      </c>
+      <c r="F11" s="27">
+        <v>61.74</v>
+      </c>
+      <c r="G11" s="27">
+        <v>11.72</v>
+      </c>
+      <c r="H11" s="27">
+        <v>19.41</v>
+      </c>
+      <c r="I11" s="27">
+        <v>960.04</v>
+      </c>
+      <c r="J11" s="27">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="K11" s="27">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="L11" s="28">
+        <f t="shared" si="0"/>
+        <v>411.29888888888883</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C12" s="27">
         <v>17.57</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D12" s="27">
         <v>12.43</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E12" s="27">
         <v>433.63</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F12" s="27">
         <v>19.73</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G12" s="27">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H12" s="27">
         <v>6.7</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I12" s="27">
         <v>236.77</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J12" s="27">
         <v>6.8</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K12" s="27">
         <v>25.77</v>
       </c>
-      <c r="L10" s="28">
-        <f>AVERAGE(C10:K10)</f>
+      <c r="L12" s="28">
+        <f t="shared" si="0"/>
         <v>85.288888888888877</v>
       </c>
     </row>
@@ -2042,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2522D6EB-2723-43B9-80B6-0625E61A1316}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2137,17 +2389,45 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2172,51 +2452,51 @@
   <sheetData>
     <row r="3" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32" t="s">
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32" t="s">
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
     </row>
     <row r="4" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -2587,7 +2867,7 @@
       </c>
     </row>
     <row r="11" spans="2:33" s="2" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -2607,7 +2887,7 @@
       </c>
     </row>
     <row r="12" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
@@ -2625,16 +2905,16 @@
       </c>
     </row>
     <row r="13" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="1">
         <v>54</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="1">
         <v>82</v>
       </c>
       <c r="F13" s="3">
@@ -2642,7 +2922,7 @@
       </c>
     </row>
     <row r="14" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="19" t="s">
         <v>29</v>
       </c>
@@ -2661,17 +2941,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:T3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
